--- a/SLR/B&E.xlsx
+++ b/SLR/B&E.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Blockchain for edge of things: applications, opportunities, and challenges</t>
   </si>
@@ -43,13 +44,73 @@
   </si>
   <si>
     <t>Survey or review on Blockchain and Edge computing:</t>
+  </si>
+  <si>
+    <t>General Research Questions</t>
+  </si>
+  <si>
+    <t>RQ1: What are the existing challenges and open issues of research in ……….?</t>
+  </si>
+  <si>
+    <t>RQ4. What is the evaluation result of the proposed solutions?</t>
+  </si>
+  <si>
+    <t>issues</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>blockchain</t>
+  </si>
+  <si>
+    <t>decentralized management</t>
+  </si>
+  <si>
+    <t>reliable access and control of resources</t>
+  </si>
+  <si>
+    <t>transparency</t>
+  </si>
+  <si>
+    <t>immutability</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>storage/computation cost in resources-limited devices</t>
+  </si>
+  <si>
+    <t>security in network,data,service</t>
+  </si>
+  <si>
+    <t>scalability in latency, throughput, resource</t>
+  </si>
+  <si>
+    <t>RQ1. What existing issues the author tried to solve with blockchain?</t>
+  </si>
+  <si>
+    <t>RQ2. What is the role of blockchain/edge in solving those issues?</t>
+  </si>
+  <si>
+    <t>RQ3. How the issues are being managed in the blockchain-based/edge-based system?</t>
+  </si>
+  <si>
+    <t>Research Questions: blockchain for edge or edge for blockchain?</t>
+  </si>
+  <si>
+    <t>RQ2: What are the prospective future directions for research in…. ?</t>
+  </si>
+  <si>
+    <t>RQ3. What tools/platforms/type of evaluation technique are used for the evaluation of …?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,8 +126,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,7 +151,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -93,12 +175,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -382,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +481,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -402,7 +491,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -412,39 +501,152 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.sciencedirect.com/science/article/pii/S2096720921000014"/>
-    <hyperlink ref="A7" r:id="rId2" display="https://arxiv.org/abs/2006.03596"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://ieeexplore.ieee.org/abstract/document/9104970/"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://ieeexplore.ieee.org/abstract/document/8624417/"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://www.mdpi.com/1001388"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="8" width="33.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>